--- a/Shared - template nilai.xlsx
+++ b/Shared - template nilai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sekolah\Kuliah\Aslab\TPA\Web\VK23-2_TPA_Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC08D82-5732-43AB-9D6F-0D9603139BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15AC460-7AAB-4D99-9F5A-B84325F86CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{36528B3F-DB1E-2849-8381-FEDD73900826}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="9" xr2:uid="{36528B3F-DB1E-2849-8381-FEDD73900826}"/>
   </bookViews>
   <sheets>
     <sheet name="General " sheetId="1" r:id="rId1"/>
@@ -743,6 +743,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,8 +766,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1115,44 +1115,44 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1176,15 +1176,15 @@
       <c r="C15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E66DFD9-E84D-B74D-9794-90C70AD79E41}">
   <dimension ref="C6:D20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1211,49 +1211,49 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1261,19 +1261,19 @@
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1295,16 +1295,16 @@
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="12"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1333,17 +1333,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1351,37 +1351,37 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1389,19 +1389,19 @@
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="11"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="11"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="12"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1415,7 +1415,7 @@
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1423,16 +1423,16 @@
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="12"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1461,17 +1461,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1479,43 +1479,43 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="11"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="12"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1523,43 +1523,43 @@
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="11"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="11"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="11"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="11"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="11"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="11"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="12"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1581,16 +1581,16 @@
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="12"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1619,17 +1619,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1637,19 +1637,19 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1657,16 +1657,16 @@
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1694,17 +1694,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1712,37 +1712,37 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1750,13 +1750,13 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
@@ -1770,7 +1770,7 @@
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1778,16 +1778,16 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1805,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A853B64-4398-4C1C-B13E-4B5924807788}">
   <dimension ref="C6:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1816,17 +1816,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1834,31 +1834,31 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1866,13 +1866,13 @@
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="11"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="12"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1894,16 +1894,16 @@
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="14"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1932,17 +1932,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1950,31 +1950,31 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1982,19 +1982,19 @@
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="11"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="11"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="12"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2024,16 +2024,16 @@
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2062,17 +2062,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2080,25 +2080,25 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2106,37 +2106,37 @@
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="14"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="14"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="1" t="s">
         <v>127</v>
       </c>
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2158,16 +2158,16 @@
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="14"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2196,17 +2196,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2214,37 +2214,37 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -2252,19 +2252,19 @@
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="11"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="12"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -2272,82 +2272,82 @@
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="11"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="11"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="11"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="11"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="11"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="11"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="11"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="11"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="11"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="11"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="11"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="12"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2376,66 +2376,66 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
+      <c r="C12" s="13"/>
       <c r="D12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="12"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2443,69 +2443,69 @@
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="12"/>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="12"/>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="11"/>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="11"/>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="12"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2525,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64EB2F9-2466-684D-BB2E-362FDE6BA069}">
   <dimension ref="C6:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D23"/>
+    <sheetView topLeftCell="B3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2536,88 +2536,88 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="11"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="11"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="11"/>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="11"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="11"/>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="12"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2633,29 +2633,29 @@
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="12"/>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2673,7 +2673,7 @@
   <dimension ref="C6:D15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="D8" sqref="D8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2683,38 +2683,38 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2722,29 +2722,29 @@
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2762,7 +2762,7 @@
   <dimension ref="C6:D14"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2772,20 +2772,20 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2801,35 +2801,35 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2846,7 +2846,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScale="164" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:F1048576"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2861,25 +2861,25 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2887,22 +2887,22 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2919,7 +2919,7 @@
   <dimension ref="C6:D10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="233" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2929,34 +2929,34 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="12"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2973,7 +2973,7 @@
   <dimension ref="C6:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="178" workbookViewId="0">
-      <selection activeCell="E3" sqref="E1:F1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2983,17 +2983,17 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3001,31 +3001,31 @@
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3033,16 +3033,16 @@
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3060,7 +3060,7 @@
   <dimension ref="C6:D19"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="187" workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:F1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3070,64 +3070,64 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="12"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="11"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="12"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3148,16 +3148,16 @@
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="12"/>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Shared - template nilai.xlsx
+++ b/Shared - template nilai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sekolah\Kuliah\Aslab\TPA\Web\VK23-2_TPA_Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15AC460-7AAB-4D99-9F5A-B84325F86CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783BB902-08C3-492E-A8C1-63B7D2471B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="9" xr2:uid="{36528B3F-DB1E-2849-8381-FEDD73900826}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="10" xr2:uid="{36528B3F-DB1E-2849-8381-FEDD73900826}"/>
   </bookViews>
   <sheets>
     <sheet name="General " sheetId="1" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="C6:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="139" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1128,7 @@
       <c r="C8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1146,13 +1146,13 @@
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E66DFD9-E84D-B74D-9794-90C70AD79E41}">
   <dimension ref="C6:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1256,25 +1256,25 @@
       <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       <c r="C17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1290,13 +1290,13 @@
       <c r="C18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="14"/>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1322,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A688AB6-B4BF-AD41-AED6-D93A85A4C998}">
   <dimension ref="C6:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1346,7 @@
       <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1358,13 +1358,13 @@
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="13"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="13"/>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1384,13 +1384,13 @@
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="13"/>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="14"/>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>89</v>
       </c>
     </row>
